--- a/Письменные_и_компьютерные_столы.xlsx
+++ b/Письменные_и_компьютерные_столы.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Название товара</t>
   </si>
   <si>
-    <t>Минимальная Цена</t>
-  </si>
-  <si>
-    <t>Минимальные сроки доставки среди тех, у кого минимальная цена</t>
+    <t>Минимальная цена</t>
+  </si>
+  <si>
+    <t>Мин. сроки доставки среди тех, у кого минимальная цена</t>
   </si>
   <si>
     <t>Цена KingStyle</t>
@@ -31,7 +31,7 @@
     <t>Сроки доставки KingStyle</t>
   </si>
   <si>
-    <t>Магазины срока доставки</t>
+    <t>Магазины с мин. сроком доставки</t>
   </si>
   <si>
     <t>Наличие</t>
@@ -40,97 +40,28 @@
     <t>Ссылка</t>
   </si>
   <si>
-    <t>Ritmix TBL-120 (черный)</t>
-  </si>
-  <si>
-    <t>1199.00</t>
-  </si>
-  <si>
-    <t>Доставка 1 день</t>
-  </si>
-  <si>
-    <t>889.98</t>
-  </si>
-  <si>
-    <t>AMD, Медиа Маркет групп ООО, STOX, 5 элемент, ЕВРОСТУЛ, iMarket</t>
-  </si>
-  <si>
-    <t>Есть в магазине KingStyle</t>
-  </si>
-  <si>
-    <t>https://catalog.onliner.by/table/ritmix/tbl120black/prices</t>
-  </si>
-  <si>
-    <t>Сокол КСТ-18 (белый)</t>
-  </si>
-  <si>
-    <t>223.18</t>
-  </si>
-  <si>
-    <t>Доставка 2 день</t>
-  </si>
-  <si>
-    <t>Mebelart, STOX, FM, ЕВРОСТУЛ, TTN, Стратегия комфорта</t>
-  </si>
-  <si>
-    <t>https://catalog.onliner.by/table/sokolmebel/kst18wh/prices</t>
-  </si>
-  <si>
-    <t>Домус СП016 белый</t>
-  </si>
-  <si>
-    <t>155.52</t>
-  </si>
-  <si>
-    <t>STOX, ЕВРОСТУЛ, Стратегия комфорта, mirkresel</t>
-  </si>
-  <si>
-    <t>https://catalog.onliner.by/table/domus/624425016/prices</t>
-  </si>
-  <si>
-    <t>Сокол КСТ-19 (черный с красной кромкой)</t>
-  </si>
-  <si>
-    <t>331.13</t>
-  </si>
-  <si>
-    <t>Mebelart, AMD, STOX, ЕВРОСТУЛ, TTN, Newton</t>
-  </si>
-  <si>
-    <t>https://catalog.onliner.by/table/sokolmebel/skm0000010962/prices</t>
-  </si>
-  <si>
-    <t>Нависэл Техно Loft NTL3 1300x660 (орех селект темный)</t>
-  </si>
-  <si>
-    <t>389.00</t>
+    <t>Сокол КСТ-105.1 (венге/беленый дуб)</t>
+  </si>
+  <si>
+    <t>383.15 р.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Под заказ</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Под заказ</t>
-  </si>
-  <si>
     <t>Нет в магазине KingStyle</t>
   </si>
   <si>
-    <t>https://catalog.onliner.by/table/naviseltechno/ntl31300x660or/prices</t>
-  </si>
-  <si>
-    <t>Сокол КСТ-116 (венге)</t>
-  </si>
-  <si>
-    <t>353.61</t>
-  </si>
-  <si>
-    <t>Mebelart, AMD, STOX, ЕВРОСТУЛ, TTN, Стратегия комфорта, Newton, mirkresel</t>
-  </si>
-  <si>
-    <t>https://catalog.onliner.by/table/sokolmebel/kst116ven/prices</t>
+    <t>https://catalog.onliner.by/table/sokolmebel/kst1051vewd/prices</t>
   </si>
 </sst>
 </file>
@@ -471,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,146 +448,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
